--- a/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-16.xlsx
+++ b/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-16.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="6870" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23320" windowHeight="15040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,12 @@
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
     <sheet name="FOHM 16 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -180,10 +180,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -218,15 +230,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -320,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -497,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,10 +525,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -7901,20 +7917,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8454,15 +8475,29 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8472,7 +8507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -9052,6 +9087,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9063,7 +9103,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9141,7 +9181,7 @@
         <v>950</v>
       </c>
       <c r="C5" s="2">
-        <v>330.57046508789063</v>
+        <v>330.57046508789062</v>
       </c>
       <c r="D5" s="2">
         <v>42</v>
@@ -9362,7 +9402,7 @@
         <v>428</v>
       </c>
       <c r="C18" s="2">
-        <v>174.44680786132813</v>
+        <v>174.44680786132812</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
@@ -9413,7 +9453,7 @@
         <v>1481</v>
       </c>
       <c r="C21" s="2">
-        <v>485.88442993164063</v>
+        <v>485.88442993164062</v>
       </c>
       <c r="D21" s="2">
         <v>69</v>
@@ -9441,6 +9481,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9452,7 +9497,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9512,6 +9557,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9519,14 +9569,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9699,6 +9749,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9708,7 +9763,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9722,5 +9777,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-16.xlsx
+++ b/data/FHM/Folkhalsomyndigheten_Covid19_2020-05-16.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23320" windowHeight="15040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="6870" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,7 @@
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
     <sheet name="FOHM 16 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -180,22 +180,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -230,19 +218,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -301,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -336,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -513,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,10 +509,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -7917,25 +7901,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8475,29 +8454,15 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>43967</v>
+      <c r="A68" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8507,7 +8472,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -9087,11 +9052,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9103,7 +9063,7 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -9181,7 +9141,7 @@
         <v>950</v>
       </c>
       <c r="C5" s="2">
-        <v>330.57046508789062</v>
+        <v>330.57046508789063</v>
       </c>
       <c r="D5" s="2">
         <v>42</v>
@@ -9402,7 +9362,7 @@
         <v>428</v>
       </c>
       <c r="C18" s="2">
-        <v>174.44680786132812</v>
+        <v>174.44680786132813</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
@@ -9453,7 +9413,7 @@
         <v>1481</v>
       </c>
       <c r="C21" s="2">
-        <v>485.88442993164062</v>
+        <v>485.88442993164063</v>
       </c>
       <c r="D21" s="2">
         <v>69</v>
@@ -9481,11 +9441,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9497,7 +9452,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -9557,11 +9512,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9569,14 +9519,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9749,11 +9699,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9763,7 +9708,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9777,10 +9722,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>